--- a/dmsviva19_sms_extracion_data.xlsx
+++ b/dmsviva19_sms_extracion_data.xlsx
@@ -11,15 +11,16 @@
     <sheet name="TabGraf" sheetId="5" r:id="rId2"/>
     <sheet name="Graphics" sheetId="6" r:id="rId3"/>
     <sheet name="SelectedPapers(SP) " sheetId="13" r:id="rId4"/>
-    <sheet name="SP-Attr" sheetId="22" r:id="rId5"/>
-    <sheet name="SAEV-Taxonomy" sheetId="21" r:id="rId6"/>
+    <sheet name="SP-QA" sheetId="23" r:id="rId5"/>
+    <sheet name="SP-Attr" sheetId="22" r:id="rId6"/>
+    <sheet name="SAEV-Taxonomy" sheetId="21" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="425">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1262,6 +1263,39 @@
   </si>
   <si>
     <t>Replicated papers</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Are the aims of the study clearly specified?</t>
+  </si>
+  <si>
+    <t>Is the context of the study clearly stated?</t>
+  </si>
+  <si>
+    <t>Does the research design support the aims of the study?</t>
+  </si>
+  <si>
+    <t>Has the study an adequate description of the visual solution?</t>
+  </si>
+  <si>
+    <t>Is there a clear statement of findings by applying the visual solution to support the comprehension of software architecture evolution?</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1369,6 +1403,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1378,7 +1418,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1592,12 +1632,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1914,51 +1992,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1979,9 +2012,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2010,12 +2040,242 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF95B3D7"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF95B3D7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF95B3D7"/>
+        </left>
+        <top style="thin">
+          <color rgb="FF95B3D7"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF95B3D7"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2889,7 +3149,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3200,7 +3459,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3246,7 +3504,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3516,7 +3773,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3876,11 +4132,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="270975360"/>
-        <c:axId val="270976896"/>
+        <c:axId val="243601792"/>
+        <c:axId val="243603328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="270975360"/>
+        <c:axId val="243601792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3889,7 +4145,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270976896"/>
+        <c:crossAx val="243603328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3897,7 +4153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270976896"/>
+        <c:axId val="243603328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3929,7 +4185,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270975360"/>
+        <c:crossAx val="243601792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4038,11 +4294,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="271030528"/>
-        <c:axId val="271036800"/>
+        <c:axId val="183343360"/>
+        <c:axId val="243626368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="271030528"/>
+        <c:axId val="183343360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4070,7 +4326,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="271036800"/>
+        <c:crossAx val="243626368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4078,7 +4334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271036800"/>
+        <c:axId val="243626368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -4110,7 +4366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="271030528"/>
+        <c:crossAx val="183343360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4253,11 +4509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="300228992"/>
-        <c:axId val="300230528"/>
+        <c:axId val="243646848"/>
+        <c:axId val="243648384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="300228992"/>
+        <c:axId val="243646848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4276,7 +4532,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300230528"/>
+        <c:crossAx val="243648384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4284,7 +4540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300230528"/>
+        <c:axId val="243648384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4309,14 +4565,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="300228992"/>
+        <c:crossAx val="243646848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4373,7 +4628,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4455,7 +4709,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr/>
@@ -4692,7 +4945,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4738,7 +4990,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5049,7 +5300,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5095,7 +5345,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5406,7 +5655,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5771,7 +6019,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5816,7 +6063,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6062,7 +6308,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6109,7 +6354,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6355,7 +6599,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6401,7 +6644,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6647,7 +6889,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6693,7 +6934,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6939,7 +7179,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6975,7 +7214,7 @@
         <xdr:cNvPr id="10" name="Gráfico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7013,7 +7252,7 @@
         <xdr:cNvPr id="12" name="Gráfico 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7051,7 +7290,7 @@
         <xdr:cNvPr id="13" name="Gráfico 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7089,7 +7328,7 @@
         <xdr:cNvPr id="14" name="Gráfico 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7127,7 +7366,7 @@
         <xdr:cNvPr id="15" name="Gráfico 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7165,7 +7404,7 @@
         <xdr:cNvPr id="71" name="Gráfico 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7203,7 +7442,7 @@
         <xdr:cNvPr id="72" name="Gráfico 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7241,7 +7480,7 @@
         <xdr:cNvPr id="74" name="Gráfico 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7279,7 +7518,7 @@
         <xdr:cNvPr id="75" name="Gráfico 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7317,7 +7556,7 @@
         <xdr:cNvPr id="76" name="Gráfico 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8899,52 +9138,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="B1:L93" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="B1:L93" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="B1:L93"/>
   <sortState ref="B2:L93">
     <sortCondition ref="B1:B93"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Ord" dataDxfId="30"/>
-    <tableColumn id="2" name="Source" dataDxfId="29"/>
-    <tableColumn id="3" name="Author" dataDxfId="28"/>
-    <tableColumn id="4" name="Title" dataDxfId="27"/>
-    <tableColumn id="5" name="Year" dataDxfId="26"/>
-    <tableColumn id="6" name="Venue" dataDxfId="25"/>
-    <tableColumn id="7" name="Venue Type (1)" dataDxfId="24"/>
-    <tableColumn id="8" name="Pages" dataDxfId="23"/>
-    <tableColumn id="9" name="Paper Status (2)" dataDxfId="22"/>
-    <tableColumn id="10" name="Exclusion Criterion" dataDxfId="21"/>
-    <tableColumn id="11" name="Replicated" dataDxfId="20"/>
+    <tableColumn id="1" name="Ord" dataDxfId="42"/>
+    <tableColumn id="2" name="Source" dataDxfId="41"/>
+    <tableColumn id="3" name="Author" dataDxfId="40"/>
+    <tableColumn id="4" name="Title" dataDxfId="39"/>
+    <tableColumn id="5" name="Year" dataDxfId="38"/>
+    <tableColumn id="6" name="Venue" dataDxfId="37"/>
+    <tableColumn id="7" name="Venue Type (1)" dataDxfId="36"/>
+    <tableColumn id="8" name="Pages" dataDxfId="35"/>
+    <tableColumn id="9" name="Paper Status (2)" dataDxfId="34"/>
+    <tableColumn id="10" name="Exclusion Criterion" dataDxfId="33"/>
+    <tableColumn id="11" name="Replicated" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B3:H8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B3:H8" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="B3:H8"/>
   <sortState ref="B4:H8">
     <sortCondition ref="B3:B8"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Source" dataDxfId="14"/>
-    <tableColumn id="2" name="Selected papers" dataDxfId="13">
+    <tableColumn id="1" name="Source" dataDxfId="26"/>
+    <tableColumn id="2" name="Selected papers" dataDxfId="25">
       <calculatedColumnFormula>Extraction!C101</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Excluded papers" dataDxfId="12">
+    <tableColumn id="3" name="Excluded papers" dataDxfId="24">
       <calculatedColumnFormula>Extraction!D101</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Not selected papers" dataDxfId="11">
+    <tableColumn id="4" name="Not selected papers" dataDxfId="23">
       <calculatedColumnFormula>Extraction!E101</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Replicated papers(*)" dataDxfId="10">
+    <tableColumn id="5" name="Replicated papers(*)" dataDxfId="22">
       <calculatedColumnFormula>Extraction!F101</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" dataDxfId="9">
+    <tableColumn id="6" name="Total" dataDxfId="21">
       <calculatedColumnFormula>Extraction!G101</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Search Effectiveness" dataDxfId="8" dataCellStyle="Porcentagem">
+    <tableColumn id="7" name="Search Effectiveness" dataDxfId="20" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Extraction!H101</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8953,18 +9192,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela194" displayName="Tabela194" ref="A1:F13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela194" displayName="Tabela194" ref="A1:F13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:F13"/>
   <sortState ref="A2:G15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Reference Label" dataDxfId="5"/>
-    <tableColumn id="12" name="Source" dataDxfId="4"/>
-    <tableColumn id="2" name="Title" dataDxfId="3"/>
-    <tableColumn id="3" name="Author(s)" dataDxfId="2"/>
-    <tableColumn id="4" name="Additional Information" dataDxfId="1"/>
-    <tableColumn id="5" name="Year" dataDxfId="0"/>
+    <tableColumn id="1" name="Reference Label" dataDxfId="17"/>
+    <tableColumn id="12" name="Source" dataDxfId="16"/>
+    <tableColumn id="2" name="Title" dataDxfId="15"/>
+    <tableColumn id="3" name="Author(s)" dataDxfId="14"/>
+    <tableColumn id="4" name="Additional Information" dataDxfId="13"/>
+    <tableColumn id="5" name="Year" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela18" displayName="Tabela18" ref="A1:G13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <tableColumns count="7">
+    <tableColumn id="1" name="Reference Label" dataDxfId="6"/>
+    <tableColumn id="2" name="Title" dataDxfId="5"/>
+    <tableColumn id="3" name="Q1" dataDxfId="4"/>
+    <tableColumn id="4" name="Q2" dataDxfId="3"/>
+    <tableColumn id="5" name="Q3" dataDxfId="2"/>
+    <tableColumn id="6" name="Q4" dataDxfId="1"/>
+    <tableColumn id="7" name="Q5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12630,12 +12884,12 @@
       <c r="L93" s="26"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B94" s="121" t="s">
+      <c r="B94" s="106" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B95" s="122" t="s">
+      <c r="B95" s="107" t="s">
         <v>401</v>
       </c>
       <c r="C95" s="24" t="s">
@@ -12643,7 +12897,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B96" s="122" t="s">
+      <c r="B96" s="107" t="s">
         <v>402</v>
       </c>
       <c r="C96" s="24" t="s">
@@ -12653,534 +12907,534 @@
       <c r="F96" s="32"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B97" s="122"/>
+      <c r="B97" s="107"/>
       <c r="C97" s="24"/>
       <c r="E97" s="61"/>
       <c r="F97" s="32"/>
     </row>
-    <row r="98" spans="2:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="126"/>
-      <c r="D98" s="123"/>
-      <c r="E98" s="123"/>
-      <c r="F98" s="124"/>
-      <c r="G98" s="123"/>
-      <c r="H98" s="124"/>
-      <c r="J98" s="124"/>
-      <c r="K98" s="124"/>
-    </row>
-    <row r="99" spans="2:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="124"/>
-      <c r="C99" s="123"/>
-      <c r="D99" s="123"/>
-      <c r="F99" s="124"/>
-      <c r="G99" s="123"/>
-      <c r="H99" s="124"/>
-      <c r="J99" s="124"/>
-      <c r="K99" s="124"/>
-    </row>
-    <row r="100" spans="2:12" s="125" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B100" s="127" t="s">
+    <row r="98" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="111"/>
+      <c r="D98" s="108"/>
+      <c r="E98" s="108"/>
+      <c r="F98" s="109"/>
+      <c r="G98" s="108"/>
+      <c r="H98" s="109"/>
+      <c r="J98" s="109"/>
+      <c r="K98" s="109"/>
+    </row>
+    <row r="99" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="109"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="F99" s="109"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="109"/>
+      <c r="J99" s="109"/>
+      <c r="K99" s="109"/>
+    </row>
+    <row r="100" spans="2:12" s="110" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B100" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="127" t="s">
+      <c r="C100" s="112" t="s">
         <v>392</v>
       </c>
-      <c r="D100" s="127" t="s">
+      <c r="D100" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="E100" s="127" t="s">
+      <c r="E100" s="112" t="s">
         <v>391</v>
       </c>
-      <c r="F100" s="127" t="s">
+      <c r="F100" s="112" t="s">
         <v>413</v>
       </c>
-      <c r="G100" s="127" t="s">
+      <c r="G100" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="H100" s="127" t="s">
+      <c r="H100" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="J100" s="124"/>
-      <c r="K100" s="128" t="s">
+      <c r="J100" s="109"/>
+      <c r="K100" s="122" t="s">
         <v>393</v>
       </c>
-      <c r="L100" s="128"/>
-    </row>
-    <row r="101" spans="2:12" s="125" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B101" s="127" t="s">
+      <c r="L100" s="122"/>
+    </row>
+    <row r="101" spans="2:12" s="110" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B101" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="C101" s="125">
+      <c r="C101" s="110">
         <f>COUNTIFS($C$2:$C$93,$B101,$J$2:$J$93,"S")</f>
         <v>5</v>
       </c>
-      <c r="D101" s="125">
+      <c r="D101" s="110">
         <f>COUNTIFS($C$2:$C$93,$B101,$J$2:$J$93,"E")</f>
         <v>4</v>
       </c>
-      <c r="E101" s="125">
+      <c r="E101" s="110">
         <f>COUNTIFS($C$2:$C$93,$B101,$J$2:$J$93,"NS")</f>
         <v>14</v>
       </c>
-      <c r="F101" s="125">
+      <c r="F101" s="110">
         <f>COUNTIFS($C$2:$C$93,$B101,$J$2:$J$93,"R")</f>
         <v>4</v>
       </c>
-      <c r="G101" s="125">
+      <c r="G101" s="110">
         <f>SUM(C101:F101)</f>
         <v>27</v>
       </c>
-      <c r="H101" s="129">
+      <c r="H101" s="113">
         <f>C101/G101</f>
         <v>0.18518518518518517</v>
       </c>
-      <c r="J101" s="124"/>
-      <c r="K101" s="124" t="s">
+      <c r="J101" s="109"/>
+      <c r="K101" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="L101" s="125">
+      <c r="L101" s="110">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="2:12" s="125" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B102" s="127" t="s">
+    <row r="102" spans="2:12" s="110" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B102" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="125">
+      <c r="C102" s="110">
         <f>COUNTIFS($C$2:$C$93,$B102,$J$2:$J$93,"S")</f>
         <v>3</v>
       </c>
-      <c r="D102" s="125">
+      <c r="D102" s="110">
         <f>COUNTIFS($C$2:$C$93,$B102,$J$2:$J$93,"E")</f>
         <v>4</v>
       </c>
-      <c r="E102" s="125">
+      <c r="E102" s="110">
         <f>COUNTIFS($C$2:$C$93,$B102,$J$2:$J$93,"NS")</f>
         <v>6</v>
       </c>
-      <c r="F102" s="125">
+      <c r="F102" s="110">
         <f>COUNTIFS($C$2:$C$93,$B102,$J$2:$J$93,"R")</f>
         <v>14</v>
       </c>
-      <c r="G102" s="125">
+      <c r="G102" s="110">
         <f>SUM(C102:F102)</f>
         <v>27</v>
       </c>
-      <c r="H102" s="129">
+      <c r="H102" s="113">
         <f>C102/G102</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="J102" s="124"/>
-      <c r="K102" s="124" t="s">
+      <c r="J102" s="109"/>
+      <c r="K102" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="L102" s="125">
+      <c r="L102" s="110">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="127" t="s">
+    <row r="103" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="C103" s="125">
+      <c r="C103" s="110">
         <f>COUNTIFS($C$2:$C$93,$B103,$J$2:$J$93,"S")</f>
         <v>2</v>
       </c>
-      <c r="D103" s="125">
+      <c r="D103" s="110">
         <f>COUNTIFS($C$2:$C$93,$B103,$J$2:$J$93,"E")</f>
         <v>3</v>
       </c>
-      <c r="E103" s="125">
+      <c r="E103" s="110">
         <f>COUNTIFS($C$2:$C$93,$B103,$J$2:$J$93,"NS")</f>
         <v>3</v>
       </c>
-      <c r="F103" s="125">
+      <c r="F103" s="110">
         <f>COUNTIFS($C$2:$C$93,$B103,$J$2:$J$93,"R")</f>
         <v>12</v>
       </c>
-      <c r="G103" s="125">
+      <c r="G103" s="110">
         <f>SUM(C103:F103)</f>
         <v>20</v>
       </c>
-      <c r="H103" s="129">
+      <c r="H103" s="113">
         <f>C103/G103</f>
         <v>0.1</v>
       </c>
-      <c r="J103" s="124"/>
-      <c r="K103" s="124" t="s">
+      <c r="J103" s="109"/>
+      <c r="K103" s="109" t="s">
         <v>238</v>
       </c>
-      <c r="L103" s="125">
+      <c r="L103" s="110">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="2:12" s="125" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B104" s="127" t="s">
+    <row r="104" spans="2:12" s="110" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B104" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="125">
+      <c r="C104" s="110">
         <f>COUNTIFS($C$2:$C$93,$B104,$J$2:$J$93,"S")</f>
         <v>2</v>
       </c>
-      <c r="D104" s="125">
+      <c r="D104" s="110">
         <f>COUNTIFS($C$2:$C$93,$B104,$J$2:$J$93,"E")</f>
         <v>2</v>
       </c>
-      <c r="E104" s="125">
+      <c r="E104" s="110">
         <f>COUNTIFS($C$2:$C$93,$B104,$J$2:$J$93,"NS")</f>
         <v>13</v>
       </c>
-      <c r="F104" s="125">
+      <c r="F104" s="110">
         <f>COUNTIFS($C$2:$C$93,$B104,$J$2:$J$93,"R")</f>
         <v>1</v>
       </c>
-      <c r="G104" s="125">
+      <c r="G104" s="110">
         <f>SUM(C104:F104)</f>
         <v>18</v>
       </c>
-      <c r="H104" s="129">
+      <c r="H104" s="113">
         <f>C104/G104</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="J104" s="124"/>
-      <c r="K104" s="124" t="s">
+      <c r="J104" s="109"/>
+      <c r="K104" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="L104" s="125">
+      <c r="L104" s="110">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="124" t="s">
+    <row r="105" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="125">
+      <c r="C105" s="110">
         <f>SUM(C101:C104)</f>
         <v>12</v>
       </c>
-      <c r="D105" s="125">
+      <c r="D105" s="110">
         <f>SUM(D101:D104)</f>
         <v>13</v>
       </c>
-      <c r="E105" s="125">
+      <c r="E105" s="110">
         <f>SUM(E101:E104)</f>
         <v>36</v>
       </c>
-      <c r="F105" s="125">
+      <c r="F105" s="110">
         <f>SUM(F101:F104)</f>
         <v>31</v>
       </c>
-      <c r="G105" s="125">
+      <c r="G105" s="110">
         <f>SUM(G101:G104)</f>
         <v>92</v>
       </c>
-      <c r="H105" s="129">
+      <c r="H105" s="113">
         <f>C105/G105</f>
         <v>0.13043478260869565</v>
       </c>
-      <c r="J105" s="124"/>
-      <c r="K105" s="124"/>
-    </row>
-    <row r="106" spans="2:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="124"/>
-      <c r="C106" s="123"/>
-      <c r="D106" s="123"/>
-      <c r="E106" s="123"/>
-      <c r="F106" s="124"/>
-      <c r="G106" s="123"/>
-      <c r="H106" s="124"/>
-      <c r="J106" s="124"/>
-      <c r="K106" s="124"/>
-    </row>
-    <row r="107" spans="2:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="124"/>
-      <c r="C107" s="123"/>
-      <c r="D107" s="123"/>
-      <c r="E107" s="123"/>
-      <c r="F107" s="124"/>
-      <c r="G107" s="123"/>
-      <c r="H107" s="124"/>
-      <c r="J107" s="124"/>
-      <c r="K107" s="124"/>
-    </row>
-    <row r="108" spans="2:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="124"/>
-      <c r="C108" s="130">
+      <c r="J105" s="109"/>
+      <c r="K105" s="109"/>
+    </row>
+    <row r="106" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="109"/>
+      <c r="C106" s="108"/>
+      <c r="D106" s="108"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="109"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="109"/>
+      <c r="J106" s="109"/>
+      <c r="K106" s="109"/>
+    </row>
+    <row r="107" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="109"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="108"/>
+      <c r="E107" s="108"/>
+      <c r="F107" s="109"/>
+      <c r="G107" s="108"/>
+      <c r="H107" s="109"/>
+      <c r="J107" s="109"/>
+      <c r="K107" s="109"/>
+    </row>
+    <row r="108" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="109"/>
+      <c r="C108" s="114">
         <f>C101/G101</f>
         <v>0.18518518518518517</v>
       </c>
-      <c r="D108" s="123"/>
-      <c r="E108" s="131" t="s">
+      <c r="D108" s="108"/>
+      <c r="E108" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="F108" s="130">
+      <c r="F108" s="114">
         <f>F101/G101</f>
         <v>0.14814814814814814</v>
       </c>
-      <c r="G108" s="123"/>
-      <c r="H108" s="124"/>
-      <c r="J108" s="124"/>
-      <c r="K108" s="124"/>
-    </row>
-    <row r="109" spans="2:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="124"/>
-      <c r="C109" s="130">
+      <c r="G108" s="108"/>
+      <c r="H108" s="109"/>
+      <c r="J108" s="109"/>
+      <c r="K108" s="109"/>
+    </row>
+    <row r="109" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="109"/>
+      <c r="C109" s="114">
         <f>C102/G102</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D109" s="123"/>
-      <c r="E109" s="131" t="s">
+      <c r="D109" s="108"/>
+      <c r="E109" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="F109" s="130">
+      <c r="F109" s="114">
         <f>F102/G102</f>
         <v>0.51851851851851849</v>
       </c>
-      <c r="G109" s="123"/>
-      <c r="H109" s="124"/>
-      <c r="J109" s="124"/>
-      <c r="K109" s="124"/>
-    </row>
-    <row r="110" spans="2:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="124"/>
-      <c r="C110" s="130">
+      <c r="G109" s="108"/>
+      <c r="H109" s="109"/>
+      <c r="J109" s="109"/>
+      <c r="K109" s="109"/>
+    </row>
+    <row r="110" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="109"/>
+      <c r="C110" s="114">
         <f>C103/G103</f>
         <v>0.1</v>
       </c>
-      <c r="D110" s="123"/>
-      <c r="E110" s="131" t="s">
+      <c r="D110" s="108"/>
+      <c r="E110" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="F110" s="130">
+      <c r="F110" s="114">
         <f>F103/G103</f>
         <v>0.6</v>
       </c>
-      <c r="G110" s="123"/>
-      <c r="H110" s="124"/>
-      <c r="J110" s="124"/>
-      <c r="K110" s="124"/>
-    </row>
-    <row r="111" spans="2:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="124"/>
-      <c r="C111" s="130">
+      <c r="G110" s="108"/>
+      <c r="H110" s="109"/>
+      <c r="J110" s="109"/>
+      <c r="K110" s="109"/>
+    </row>
+    <row r="111" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="109"/>
+      <c r="C111" s="114">
         <f>C104/G104</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D111" s="123"/>
-      <c r="E111" s="131" t="s">
+      <c r="D111" s="108"/>
+      <c r="E111" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="F111" s="130">
+      <c r="F111" s="114">
         <f>F104/G104</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="G111" s="123"/>
-      <c r="H111" s="124"/>
-      <c r="J111" s="124"/>
-      <c r="K111" s="124"/>
-    </row>
-    <row r="112" spans="2:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="124"/>
-      <c r="C112" s="130">
+      <c r="G111" s="108"/>
+      <c r="H111" s="109"/>
+      <c r="J111" s="109"/>
+      <c r="K111" s="109"/>
+    </row>
+    <row r="112" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="109"/>
+      <c r="C112" s="114">
         <f>C105/G105</f>
         <v>0.13043478260869565</v>
       </c>
-      <c r="D112" s="123"/>
-      <c r="E112" s="123"/>
-      <c r="F112" s="130">
+      <c r="D112" s="108"/>
+      <c r="E112" s="108"/>
+      <c r="F112" s="114">
         <f>F105/G105</f>
         <v>0.33695652173913043</v>
       </c>
-      <c r="G112" s="123"/>
-      <c r="H112" s="124"/>
-      <c r="J112" s="124"/>
-      <c r="K112" s="124"/>
-    </row>
-    <row r="113" spans="2:11" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="124"/>
-      <c r="C113" s="123"/>
-      <c r="D113" s="123"/>
-      <c r="E113" s="123"/>
-      <c r="F113" s="124"/>
-      <c r="G113" s="123"/>
-      <c r="H113" s="124"/>
-      <c r="J113" s="124"/>
-      <c r="K113" s="124"/>
-    </row>
-    <row r="114" spans="2:11" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="124"/>
-      <c r="C114" s="123"/>
-      <c r="D114" s="123"/>
-      <c r="E114" s="123"/>
-      <c r="F114" s="124"/>
-      <c r="G114" s="123"/>
-      <c r="H114" s="124"/>
-      <c r="J114" s="124"/>
-      <c r="K114" s="124"/>
-    </row>
-    <row r="115" spans="2:11" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="124"/>
-      <c r="C115" s="123"/>
-      <c r="D115" s="123"/>
-      <c r="E115" s="123"/>
-      <c r="F115" s="124"/>
-      <c r="G115" s="123"/>
-      <c r="H115" s="124"/>
-      <c r="J115" s="124"/>
-      <c r="K115" s="124"/>
-    </row>
-    <row r="116" spans="2:11" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="128" t="s">
+      <c r="G112" s="108"/>
+      <c r="H112" s="109"/>
+      <c r="J112" s="109"/>
+      <c r="K112" s="109"/>
+    </row>
+    <row r="113" spans="2:11" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="109"/>
+      <c r="C113" s="108"/>
+      <c r="D113" s="108"/>
+      <c r="E113" s="108"/>
+      <c r="F113" s="109"/>
+      <c r="G113" s="108"/>
+      <c r="H113" s="109"/>
+      <c r="J113" s="109"/>
+      <c r="K113" s="109"/>
+    </row>
+    <row r="114" spans="2:11" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="109"/>
+      <c r="C114" s="108"/>
+      <c r="D114" s="108"/>
+      <c r="E114" s="108"/>
+      <c r="F114" s="109"/>
+      <c r="G114" s="108"/>
+      <c r="H114" s="109"/>
+      <c r="J114" s="109"/>
+      <c r="K114" s="109"/>
+    </row>
+    <row r="115" spans="2:11" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="109"/>
+      <c r="C115" s="108"/>
+      <c r="D115" s="108"/>
+      <c r="E115" s="108"/>
+      <c r="F115" s="109"/>
+      <c r="G115" s="108"/>
+      <c r="H115" s="109"/>
+      <c r="J115" s="109"/>
+      <c r="K115" s="109"/>
+    </row>
+    <row r="116" spans="2:11" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="122" t="s">
         <v>239</v>
       </c>
-      <c r="C116" s="128"/>
-      <c r="D116" s="123"/>
-      <c r="E116" s="123"/>
-      <c r="F116" s="124"/>
-      <c r="G116" s="123"/>
-      <c r="H116" s="124"/>
-      <c r="J116" s="124"/>
-      <c r="K116" s="124"/>
-    </row>
-    <row r="117" spans="2:11" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="124" t="s">
+      <c r="C116" s="122"/>
+      <c r="D116" s="108"/>
+      <c r="E116" s="108"/>
+      <c r="F116" s="109"/>
+      <c r="G116" s="108"/>
+      <c r="H116" s="109"/>
+      <c r="J116" s="109"/>
+      <c r="K116" s="109"/>
+    </row>
+    <row r="117" spans="2:11" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="125">
+      <c r="C117" s="110">
         <f>COUNTIFS($K$3:$K$93,$B117)</f>
         <v>7</v>
       </c>
-      <c r="D117" s="123"/>
-      <c r="E117" s="123"/>
-      <c r="F117" s="124"/>
-      <c r="G117" s="123"/>
-      <c r="H117" s="124"/>
-      <c r="J117" s="124"/>
-      <c r="K117" s="124"/>
-    </row>
-    <row r="118" spans="2:11" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="124" t="s">
+      <c r="D117" s="108"/>
+      <c r="E117" s="108"/>
+      <c r="F117" s="109"/>
+      <c r="G117" s="108"/>
+      <c r="H117" s="109"/>
+      <c r="J117" s="109"/>
+      <c r="K117" s="109"/>
+    </row>
+    <row r="118" spans="2:11" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="125">
+      <c r="C118" s="110">
         <f>COUNTIFS($K$3:$K$93,$B118)</f>
         <v>3</v>
       </c>
-      <c r="D118" s="123"/>
-      <c r="E118" s="123"/>
-      <c r="F118" s="124"/>
-      <c r="G118" s="123"/>
-      <c r="H118" s="124"/>
-      <c r="J118" s="124"/>
-      <c r="K118" s="124"/>
-    </row>
-    <row r="119" spans="2:11" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="124" t="s">
+      <c r="D118" s="108"/>
+      <c r="E118" s="108"/>
+      <c r="F118" s="109"/>
+      <c r="G118" s="108"/>
+      <c r="H118" s="109"/>
+      <c r="J118" s="109"/>
+      <c r="K118" s="109"/>
+    </row>
+    <row r="119" spans="2:11" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="125">
+      <c r="C119" s="110">
         <f>COUNTIFS($K$3:$K$93,$B119)</f>
         <v>1</v>
       </c>
-      <c r="D119" s="123"/>
-      <c r="E119" s="123"/>
-      <c r="F119" s="124"/>
-      <c r="G119" s="123"/>
-      <c r="H119" s="124"/>
-      <c r="J119" s="124"/>
-      <c r="K119" s="124"/>
-    </row>
-    <row r="120" spans="2:11" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="124" t="s">
+      <c r="D119" s="108"/>
+      <c r="E119" s="108"/>
+      <c r="F119" s="109"/>
+      <c r="G119" s="108"/>
+      <c r="H119" s="109"/>
+      <c r="J119" s="109"/>
+      <c r="K119" s="109"/>
+    </row>
+    <row r="120" spans="2:11" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C120" s="125">
+      <c r="C120" s="110">
         <f>COUNTIFS($K$3:$K$93,$B120)</f>
         <v>0</v>
       </c>
-      <c r="D120" s="123"/>
-      <c r="E120" s="123"/>
-      <c r="F120" s="124"/>
-      <c r="G120" s="123"/>
-      <c r="H120" s="124"/>
-      <c r="J120" s="124"/>
-      <c r="K120" s="124"/>
-    </row>
-    <row r="121" spans="2:11" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="124" t="s">
+      <c r="D120" s="108"/>
+      <c r="E120" s="108"/>
+      <c r="F120" s="109"/>
+      <c r="G120" s="108"/>
+      <c r="H120" s="109"/>
+      <c r="J120" s="109"/>
+      <c r="K120" s="109"/>
+    </row>
+    <row r="121" spans="2:11" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="125">
+      <c r="C121" s="110">
         <f>COUNTIFS($K$2:$K$93,$B121)</f>
         <v>2</v>
       </c>
-      <c r="D121" s="123"/>
-      <c r="E121" s="123"/>
-      <c r="F121" s="124"/>
-      <c r="G121" s="123"/>
-      <c r="H121" s="124"/>
-      <c r="J121" s="124"/>
-      <c r="K121" s="124"/>
-    </row>
-    <row r="122" spans="2:11" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="124" t="s">
+      <c r="D121" s="108"/>
+      <c r="E121" s="108"/>
+      <c r="F121" s="109"/>
+      <c r="G121" s="108"/>
+      <c r="H121" s="109"/>
+      <c r="J121" s="109"/>
+      <c r="K121" s="109"/>
+    </row>
+    <row r="122" spans="2:11" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="125">
+      <c r="C122" s="110">
         <f>SUM(C117:C121)</f>
         <v>13</v>
       </c>
-      <c r="D122" s="123"/>
-      <c r="E122" s="123"/>
-      <c r="F122" s="124"/>
-      <c r="G122" s="123"/>
-      <c r="H122" s="124"/>
-      <c r="J122" s="124"/>
-      <c r="K122" s="124"/>
-    </row>
-    <row r="123" spans="2:11" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="124"/>
-      <c r="C123" s="123"/>
-      <c r="D123" s="123"/>
-      <c r="E123" s="123"/>
-      <c r="F123" s="124"/>
-      <c r="G123" s="123"/>
-      <c r="H123" s="124"/>
-      <c r="J123" s="124"/>
-      <c r="K123" s="124"/>
-    </row>
-    <row r="124" spans="2:11" s="132" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="134"/>
-      <c r="C124" s="133"/>
-      <c r="D124" s="133"/>
-      <c r="E124" s="133"/>
-      <c r="F124" s="134"/>
-      <c r="G124" s="133"/>
-      <c r="H124" s="134"/>
-      <c r="J124" s="134"/>
-      <c r="K124" s="134"/>
-    </row>
-    <row r="125" spans="2:11" s="137" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="135"/>
-      <c r="C125" s="136"/>
-      <c r="D125" s="136"/>
-      <c r="E125" s="136"/>
-      <c r="F125" s="135"/>
-      <c r="G125" s="136"/>
-      <c r="H125" s="135"/>
-      <c r="J125" s="135"/>
-      <c r="K125" s="135"/>
-    </row>
-    <row r="126" spans="2:11" s="137" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="135"/>
-      <c r="C126" s="136"/>
-      <c r="D126" s="136"/>
-      <c r="E126" s="136"/>
-      <c r="F126" s="135"/>
-      <c r="G126" s="136"/>
-      <c r="H126" s="135"/>
-      <c r="J126" s="135"/>
-      <c r="K126" s="135"/>
+      <c r="D122" s="108"/>
+      <c r="E122" s="108"/>
+      <c r="F122" s="109"/>
+      <c r="G122" s="108"/>
+      <c r="H122" s="109"/>
+      <c r="J122" s="109"/>
+      <c r="K122" s="109"/>
+    </row>
+    <row r="123" spans="2:11" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="109"/>
+      <c r="C123" s="108"/>
+      <c r="D123" s="108"/>
+      <c r="E123" s="108"/>
+      <c r="F123" s="109"/>
+      <c r="G123" s="108"/>
+      <c r="H123" s="109"/>
+      <c r="J123" s="109"/>
+      <c r="K123" s="109"/>
+    </row>
+    <row r="124" spans="2:11" s="116" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="118"/>
+      <c r="C124" s="117"/>
+      <c r="D124" s="117"/>
+      <c r="E124" s="117"/>
+      <c r="F124" s="118"/>
+      <c r="G124" s="117"/>
+      <c r="H124" s="118"/>
+      <c r="J124" s="118"/>
+      <c r="K124" s="118"/>
+    </row>
+    <row r="125" spans="2:11" s="121" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="119"/>
+      <c r="C125" s="120"/>
+      <c r="D125" s="120"/>
+      <c r="E125" s="120"/>
+      <c r="F125" s="119"/>
+      <c r="G125" s="120"/>
+      <c r="H125" s="119"/>
+      <c r="J125" s="119"/>
+      <c r="K125" s="119"/>
+    </row>
+    <row r="126" spans="2:11" s="121" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="119"/>
+      <c r="C126" s="120"/>
+      <c r="D126" s="120"/>
+      <c r="E126" s="120"/>
+      <c r="F126" s="119"/>
+      <c r="G126" s="120"/>
+      <c r="H126" s="119"/>
+      <c r="J126" s="119"/>
+      <c r="K126" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13438,10 +13692,10 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="106"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="15"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -13974,9 +14228,457 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="141" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="141" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="141"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="140" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="140" t="s">
+        <v>417</v>
+      </c>
+      <c r="G1" s="140" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="H2" s="143"/>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" s="142" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B6" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" s="142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="142" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B9" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" s="142" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" s="144" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="145"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="147" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" s="141" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" s="141" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="147" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" s="141" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="147" t="s">
+        <v>417</v>
+      </c>
+      <c r="B18" s="141" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="147" t="s">
+        <v>418</v>
+      </c>
+      <c r="B19" s="141" t="s">
+        <v>424</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="145"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="147"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="147"/>
+      <c r="B23" s="143"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="147"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="147"/>
+      <c r="B25" s="143"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="147"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="147"/>
+      <c r="B27" s="143"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="147"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="147"/>
+      <c r="B29" s="143"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="147"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="147"/>
+      <c r="B31" s="143"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="147"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="147"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14016,29 +14718,29 @@
       <c r="D3" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="131" t="s">
         <v>305</v>
       </c>
-      <c r="F3" s="107"/>
+      <c r="F3" s="131"/>
       <c r="G3" s="56" t="s">
         <v>314</v>
       </c>
       <c r="H3" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="I3" s="107" t="s">
+      <c r="I3" s="131" t="s">
         <v>325</v>
       </c>
-      <c r="J3" s="107"/>
+      <c r="J3" s="131"/>
       <c r="K3" s="63" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="125" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="126" t="s">
         <v>281</v>
       </c>
       <c r="C4" s="92" t="s">
@@ -14069,8 +14771,8 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
-      <c r="B5" s="115"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="93" t="s">
         <v>280</v>
       </c>
@@ -14090,10 +14792,10 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="124" t="s">
         <v>380</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C6" s="94" t="s">
@@ -14123,8 +14825,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="115"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="93" t="s">
         <v>280</v>
       </c>
@@ -14146,8 +14848,8 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
-      <c r="B8" s="115"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="93"/>
       <c r="D8" s="96"/>
       <c r="E8" s="86"/>
@@ -14161,10 +14863,10 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="124" t="s">
         <v>381</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="126" t="s">
         <v>284</v>
       </c>
       <c r="C9" s="95" t="s">
@@ -14192,8 +14894,8 @@
       <c r="K9" s="65"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="113"/>
-      <c r="B10" s="115"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="93"/>
       <c r="D10" s="98"/>
       <c r="E10" s="86"/>
@@ -14209,10 +14911,10 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="124" t="s">
         <v>382</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="126" t="s">
         <v>285</v>
       </c>
       <c r="C11" s="92" t="s">
@@ -14242,8 +14944,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="97" t="s">
         <v>279</v>
       </c>
@@ -14266,8 +14968,8 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="93"/>
       <c r="D13" s="98"/>
       <c r="E13" s="86"/>
@@ -14283,8 +14985,8 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
-      <c r="B14" s="115"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="93"/>
       <c r="D14" s="93"/>
       <c r="E14" s="86"/>
@@ -14300,10 +15002,10 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="124" t="s">
         <v>383</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="128" t="s">
         <v>286</v>
       </c>
       <c r="C15" s="92" t="s">
@@ -14333,8 +15035,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="97" t="s">
         <v>279</v>
       </c>
@@ -14356,8 +15058,8 @@
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
-      <c r="B17" s="115"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
       <c r="E17" s="86"/>
@@ -14371,10 +15073,10 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="124" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="128" t="s">
         <v>321</v>
       </c>
       <c r="C18" s="92" t="s">
@@ -14404,8 +15106,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="113"/>
-      <c r="B19" s="115"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="93"/>
       <c r="D19" s="93"/>
       <c r="E19" s="84" t="s">
@@ -14425,8 +15127,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="113"/>
-      <c r="B20" s="115"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="93"/>
       <c r="D20" s="93"/>
       <c r="E20" s="84" t="s">
@@ -14442,10 +15144,10 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="136" t="s">
         <v>385</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="128" t="s">
         <v>288</v>
       </c>
       <c r="C21" s="92" t="s">
@@ -14454,10 +15156,10 @@
       <c r="D21" s="92" t="s">
         <v>332</v>
       </c>
-      <c r="E21" s="112" t="s">
+      <c r="E21" s="136" t="s">
         <v>300</v>
       </c>
-      <c r="F21" s="120"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="92" t="s">
         <v>346</v>
       </c>
@@ -14475,8 +15177,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="115"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
       <c r="E22" s="86"/>
@@ -14492,10 +15194,10 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="124" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="126" t="s">
         <v>287</v>
       </c>
       <c r="C23" s="92" t="s">
@@ -14526,8 +15228,8 @@
       <c r="L23" s="51"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="115"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="96"/>
       <c r="D24" s="96"/>
       <c r="E24" s="88" t="s">
@@ -14548,10 +15250,10 @@
       <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="124" t="s">
         <v>387</v>
       </c>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="126" t="s">
         <v>288</v>
       </c>
       <c r="C25" s="98" t="s">
@@ -14570,17 +15272,17 @@
       <c r="H25" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="I25" s="108" t="s">
+      <c r="I25" s="132" t="s">
         <v>301</v>
       </c>
-      <c r="J25" s="109"/>
+      <c r="J25" s="133"/>
       <c r="K25" s="7" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="115"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="93" t="s">
         <v>280</v>
       </c>
@@ -14593,17 +15295,17 @@
       <c r="H26" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="I26" s="108" t="s">
+      <c r="I26" s="132" t="s">
         <v>377</v>
       </c>
-      <c r="J26" s="109"/>
+      <c r="J26" s="133"/>
       <c r="K26" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="115"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="93"/>
       <c r="D27" s="93"/>
       <c r="E27" s="86"/>
@@ -14612,20 +15314,20 @@
       <c r="H27" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="I27" s="110" t="s">
+      <c r="I27" s="134" t="s">
         <v>303</v>
       </c>
-      <c r="J27" s="111"/>
+      <c r="J27" s="135"/>
       <c r="K27" s="7" t="s">
         <v>329</v>
       </c>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="124" t="s">
         <v>388</v>
       </c>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="126" t="s">
         <v>289</v>
       </c>
       <c r="C28" s="92" t="s">
@@ -14657,8 +15359,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="113"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="127"/>
       <c r="C29" s="93" t="s">
         <v>280</v>
       </c>
@@ -14678,8 +15380,8 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="93"/>
       <c r="D30" s="96"/>
       <c r="E30" s="84" t="s">
@@ -14695,10 +15397,10 @@
       <c r="K30" s="100"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="124" t="s">
         <v>389</v>
       </c>
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="126" t="s">
         <v>283</v>
       </c>
       <c r="C31" s="94" t="s">
@@ -14730,8 +15432,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="115"/>
+      <c r="A32" s="125"/>
+      <c r="B32" s="127"/>
       <c r="C32" s="93"/>
       <c r="D32" s="93"/>
       <c r="E32" s="84" t="s">
@@ -14749,10 +15451,10 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="124" t="s">
         <v>390</v>
       </c>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="126" t="s">
         <v>292</v>
       </c>
       <c r="C33" s="92" t="s">
@@ -14783,8 +15485,8 @@
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="113"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="125"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="93"/>
       <c r="D34" s="93"/>
       <c r="E34" s="84" t="s">
@@ -14804,8 +15506,8 @@
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="117"/>
-      <c r="B35" s="119"/>
+      <c r="A35" s="129"/>
+      <c r="B35" s="130"/>
       <c r="C35" s="96"/>
       <c r="D35" s="96"/>
       <c r="E35" s="88" t="s">
@@ -15118,20 +15820,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
@@ -15148,6 +15836,20 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15155,7 +15857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
